--- a/biology/Médecine/Crête_sacrale_médiane/Crête_sacrale_médiane.xlsx
+++ b/biology/Médecine/Crête_sacrale_médiane/Crête_sacrale_médiane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_sacrale_m%C3%A9diane</t>
+          <t>Crête_sacrale_médiane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La crête sacrale médiane (ou crête sacrée médiane) est la crête osseuse verticale au milieu de la face postérieure du sacrum.
 Elle résulte de la fusion des apophyses épineuses des vertèbres sacrées, et présente trois ou quatre tubercules séparés par des dépressions.
